--- a/artfynd/A 31203-2022.xlsx
+++ b/artfynd/A 31203-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104308116</v>
+        <v>104308095</v>
       </c>
       <c r="B2" t="n">
-        <v>78569</v>
+        <v>77258</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>400426.3731184179</v>
+        <v>400476.7632386611</v>
       </c>
       <c r="R2" t="n">
-        <v>6719529.993112762</v>
+        <v>6719661.280622681</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104308128</v>
+        <v>104308090</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>77258</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>399877.4817308244</v>
+        <v>400632.6093888343</v>
       </c>
       <c r="R3" t="n">
-        <v>6719315.223068031</v>
+        <v>6719690.390709462</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104308095</v>
+        <v>104308092</v>
       </c>
       <c r="B4" t="n">
-        <v>77258</v>
+        <v>89412</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>5442</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>400476.7632386611</v>
+        <v>400636.4897342402</v>
       </c>
       <c r="R4" t="n">
-        <v>6719661.280622681</v>
+        <v>6719688.318020608</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104308112</v>
+        <v>104308086</v>
       </c>
       <c r="B5" t="n">
-        <v>78570</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>400429.4871379302</v>
+        <v>400668.9647111295</v>
       </c>
       <c r="R5" t="n">
-        <v>6719535.804019404</v>
+        <v>6719741.475010459</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104308119</v>
+        <v>104308093</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>77258</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>400510.6882818674</v>
+        <v>400395.5552620532</v>
       </c>
       <c r="R6" t="n">
-        <v>6719499.651120087</v>
+        <v>6719679.25136943</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104308124</v>
+        <v>104308096</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>400492.6251599776</v>
+        <v>400459.044009638</v>
       </c>
       <c r="R7" t="n">
-        <v>6719433.807577809</v>
+        <v>6719661.279114753</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104308123</v>
+        <v>104308097</v>
       </c>
       <c r="B8" t="n">
-        <v>78098</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>400253.5702951755</v>
+        <v>400412.7854196645</v>
       </c>
       <c r="R8" t="n">
-        <v>6719439.931182304</v>
+        <v>6719661.575659783</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104308121</v>
+        <v>104308087</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>77258</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>400498.4019869012</v>
+        <v>400595.213832712</v>
       </c>
       <c r="R9" t="n">
-        <v>6719446.916565672</v>
+        <v>6719708.621932526</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104308109</v>
+        <v>104308085</v>
       </c>
       <c r="B10" t="n">
         <v>77506</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>400543.455114706</v>
+        <v>400559.3684025994</v>
       </c>
       <c r="R10" t="n">
-        <v>6719545.430671181</v>
+        <v>6719765.13901968</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104308120</v>
+        <v>104308106</v>
       </c>
       <c r="B11" t="n">
-        <v>77258</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>400501.2955207337</v>
+        <v>400877.7742878575</v>
       </c>
       <c r="R11" t="n">
-        <v>6719462.562337057</v>
+        <v>6719567.169512209</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104308090</v>
+        <v>104308116</v>
       </c>
       <c r="B12" t="n">
-        <v>77258</v>
+        <v>78569</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>400632.6093888343</v>
+        <v>400426.3731184179</v>
       </c>
       <c r="R12" t="n">
-        <v>6719690.390709462</v>
+        <v>6719529.993112762</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104308126</v>
+        <v>104308112</v>
       </c>
       <c r="B13" t="n">
-        <v>77506</v>
+        <v>78570</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>400216.7161002717</v>
+        <v>400429.4871379302</v>
       </c>
       <c r="R13" t="n">
-        <v>6719371.168155127</v>
+        <v>6719535.804019404</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104308133</v>
+        <v>104308119</v>
       </c>
       <c r="B14" t="n">
         <v>77506</v>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>400220.8902574539</v>
+        <v>400510.6882818674</v>
       </c>
       <c r="R14" t="n">
-        <v>6719184.299262061</v>
+        <v>6719499.651120087</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104308092</v>
+        <v>104308124</v>
       </c>
       <c r="B15" t="n">
-        <v>89412</v>
+        <v>77506</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>400636.4897342402</v>
+        <v>400492.6251599776</v>
       </c>
       <c r="R15" t="n">
-        <v>6719688.318020608</v>
+        <v>6719433.807577809</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104308088</v>
+        <v>104308121</v>
       </c>
       <c r="B16" t="n">
-        <v>78602</v>
+        <v>77506</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2260,20 +2260,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>400362.2175606661</v>
+        <v>400498.4019869012</v>
       </c>
       <c r="R16" t="n">
-        <v>6719701.795438586</v>
+        <v>6719446.916565672</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104308115</v>
+        <v>104308109</v>
       </c>
       <c r="B17" t="n">
-        <v>78570</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,21 +2376,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>400426.3731184179</v>
+        <v>400543.455114706</v>
       </c>
       <c r="R17" t="n">
-        <v>6719529.993112762</v>
+        <v>6719545.430671181</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>104308113</v>
+        <v>104308120</v>
       </c>
       <c r="B18" t="n">
-        <v>78569</v>
+        <v>77258</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2488,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>400429.4871379302</v>
+        <v>400501.2955207337</v>
       </c>
       <c r="R18" t="n">
-        <v>6719535.804019404</v>
+        <v>6719462.562337057</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2584,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>104308086</v>
+        <v>104308115</v>
       </c>
       <c r="B19" t="n">
-        <v>77506</v>
+        <v>78570</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2600,21 +2600,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>400668.9647111295</v>
+        <v>400426.3731184179</v>
       </c>
       <c r="R19" t="n">
-        <v>6719741.475010459</v>
+        <v>6719529.993112762</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>104308101</v>
+        <v>104308113</v>
       </c>
       <c r="B20" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2712,21 +2712,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2736,10 +2736,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>400333.6523803301</v>
+        <v>400429.4871379302</v>
       </c>
       <c r="R20" t="n">
-        <v>6719594.477175567</v>
+        <v>6719535.804019404</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2920,10 +2920,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104308111</v>
+        <v>104308110</v>
       </c>
       <c r="B22" t="n">
-        <v>77506</v>
+        <v>78503</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2932,25 +2932,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2960,10 +2960,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>400278.3832324275</v>
+        <v>400424.2398661994</v>
       </c>
       <c r="R22" t="n">
-        <v>6719536.054909565</v>
+        <v>6719541.846169719</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104308099</v>
+        <v>104308103</v>
       </c>
       <c r="B23" t="n">
         <v>77259</v>
@@ -3072,10 +3072,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>400291.7763373411</v>
+        <v>400403.0715614581</v>
       </c>
       <c r="R23" t="n">
-        <v>6719610.870463889</v>
+        <v>6719577.322244718</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>104308127</v>
+        <v>104308117</v>
       </c>
       <c r="B24" t="n">
         <v>77506</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>400175.1170763847</v>
+        <v>400589.6412348803</v>
       </c>
       <c r="R24" t="n">
-        <v>6719326.616765409</v>
+        <v>6719506.807216685</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3256,10 +3256,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104308110</v>
+        <v>104308107</v>
       </c>
       <c r="B25" t="n">
-        <v>78503</v>
+        <v>78569</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3268,25 +3268,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3296,10 +3296,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>400424.2398661994</v>
+        <v>400395.2185419527</v>
       </c>
       <c r="R25" t="n">
-        <v>6719541.846169719</v>
+        <v>6719560.339988856</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>104308093</v>
+        <v>104308100</v>
       </c>
       <c r="B26" t="n">
-        <v>77258</v>
+        <v>77506</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3384,21 +3384,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3408,10 +3408,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>400395.5552620532</v>
+        <v>400435.6655371095</v>
       </c>
       <c r="R26" t="n">
-        <v>6719679.25136943</v>
+        <v>6719599.025633657</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3480,10 +3480,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>104308132</v>
+        <v>104308118</v>
       </c>
       <c r="B27" t="n">
-        <v>77506</v>
+        <v>77595</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3492,25 +3492,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>6450</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3520,10 +3520,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>400190.2107087412</v>
+        <v>400441.8977865502</v>
       </c>
       <c r="R27" t="n">
-        <v>6719231.838784898</v>
+        <v>6719504.009854664</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>104308096</v>
+        <v>104308125</v>
       </c>
       <c r="B28" t="n">
         <v>77506</v>
@@ -3632,10 +3632,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>400459.044009638</v>
+        <v>400635.6058690508</v>
       </c>
       <c r="R28" t="n">
-        <v>6719661.279114753</v>
+        <v>6719424.452909853</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3704,10 +3704,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>104308097</v>
+        <v>104308105</v>
       </c>
       <c r="B29" t="n">
-        <v>77506</v>
+        <v>78098</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3720,21 +3720,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3744,10 +3744,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>400412.7854196645</v>
+        <v>400458.0892331452</v>
       </c>
       <c r="R29" t="n">
-        <v>6719661.575659783</v>
+        <v>6719573.343549464</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3816,10 +3816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>104308089</v>
+        <v>104308126</v>
       </c>
       <c r="B30" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3832,21 +3832,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>400362.2175606661</v>
+        <v>400216.7161002717</v>
       </c>
       <c r="R30" t="n">
-        <v>6719701.795438586</v>
+        <v>6719371.168155127</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>104308103</v>
+        <v>104308127</v>
       </c>
       <c r="B31" t="n">
-        <v>77259</v>
+        <v>77506</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3944,21 +3944,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3968,10 +3968,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>400403.0715614581</v>
+        <v>400175.1170763847</v>
       </c>
       <c r="R31" t="n">
-        <v>6719577.322244718</v>
+        <v>6719326.616765409</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4040,10 +4040,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>104308087</v>
+        <v>104308128</v>
       </c>
       <c r="B32" t="n">
-        <v>77258</v>
+        <v>77506</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4056,21 +4056,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4080,10 +4080,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>400595.213832712</v>
+        <v>399877.4817308244</v>
       </c>
       <c r="R32" t="n">
-        <v>6719708.621932526</v>
+        <v>6719315.223068031</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>104308106</v>
+        <v>104308130</v>
       </c>
       <c r="B33" t="n">
-        <v>77506</v>
+        <v>89412</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4168,21 +4168,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>400877.7742878575</v>
+        <v>399885.6250751372</v>
       </c>
       <c r="R33" t="n">
-        <v>6719567.169512209</v>
+        <v>6719307.133359341</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4264,10 +4264,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>104308117</v>
+        <v>104308123</v>
       </c>
       <c r="B34" t="n">
-        <v>77506</v>
+        <v>78098</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4280,21 +4280,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>400589.6412348803</v>
+        <v>400253.5702951755</v>
       </c>
       <c r="R34" t="n">
-        <v>6719506.807216685</v>
+        <v>6719439.931182304</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4376,10 +4376,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>104308130</v>
+        <v>104308133</v>
       </c>
       <c r="B35" t="n">
-        <v>89412</v>
+        <v>77506</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4392,21 +4392,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>399885.6250751372</v>
+        <v>400220.8902574539</v>
       </c>
       <c r="R35" t="n">
-        <v>6719307.133359341</v>
+        <v>6719184.299262061</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4488,10 +4488,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>104308107</v>
+        <v>104308088</v>
       </c>
       <c r="B36" t="n">
-        <v>78569</v>
+        <v>78602</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4500,25 +4500,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4528,10 +4528,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>400395.2185419527</v>
+        <v>400362.2175606661</v>
       </c>
       <c r="R36" t="n">
-        <v>6719560.339988856</v>
+        <v>6719701.795438586</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4600,10 +4600,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>104308098</v>
+        <v>104308101</v>
       </c>
       <c r="B37" t="n">
-        <v>77258</v>
+        <v>77506</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4616,21 +4616,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4640,10 +4640,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>400305.8013424787</v>
+        <v>400333.6523803301</v>
       </c>
       <c r="R37" t="n">
-        <v>6719655.200078285</v>
+        <v>6719594.477175567</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>104308100</v>
+        <v>104308111</v>
       </c>
       <c r="B38" t="n">
         <v>77506</v>
@@ -4752,10 +4752,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>400435.6655371095</v>
+        <v>400278.3832324275</v>
       </c>
       <c r="R38" t="n">
-        <v>6719599.025633657</v>
+        <v>6719536.054909565</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4824,10 +4824,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>104308108</v>
+        <v>104308099</v>
       </c>
       <c r="B39" t="n">
-        <v>77506</v>
+        <v>77259</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4840,21 +4840,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4864,10 +4864,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>400350.406960882</v>
+        <v>400291.7763373411</v>
       </c>
       <c r="R39" t="n">
-        <v>6719559.614393064</v>
+        <v>6719610.870463889</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4936,10 +4936,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>104308094</v>
+        <v>104308132</v>
       </c>
       <c r="B40" t="n">
-        <v>77258</v>
+        <v>77506</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4952,21 +4952,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>400353.8073549976</v>
+        <v>400190.2107087412</v>
       </c>
       <c r="R40" t="n">
-        <v>6719664.681853161</v>
+        <v>6719231.838784898</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>104308085</v>
+        <v>104308089</v>
       </c>
       <c r="B41" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5064,21 +5064,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5088,10 +5088,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>400559.3684025994</v>
+        <v>400362.2175606661</v>
       </c>
       <c r="R41" t="n">
-        <v>6719765.13901968</v>
+        <v>6719701.795438586</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>104308118</v>
+        <v>104308098</v>
       </c>
       <c r="B42" t="n">
-        <v>77595</v>
+        <v>77258</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5172,25 +5172,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6450</v>
+        <v>6446</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5200,10 +5200,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>400441.8977865502</v>
+        <v>400305.8013424787</v>
       </c>
       <c r="R42" t="n">
-        <v>6719504.009854664</v>
+        <v>6719655.200078285</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>104308125</v>
+        <v>104308108</v>
       </c>
       <c r="B43" t="n">
         <v>77506</v>
@@ -5312,10 +5312,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>400635.6058690508</v>
+        <v>400350.406960882</v>
       </c>
       <c r="R43" t="n">
-        <v>6719424.452909853</v>
+        <v>6719559.614393064</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5384,10 +5384,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>104308105</v>
+        <v>104308094</v>
       </c>
       <c r="B44" t="n">
-        <v>78098</v>
+        <v>77258</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5400,21 +5400,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5424,10 +5424,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>400458.0892331452</v>
+        <v>400353.8073549976</v>
       </c>
       <c r="R44" t="n">
-        <v>6719573.343549464</v>
+        <v>6719664.681853161</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
